--- a/agro/results.xlsx
+++ b/agro/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-mldm/agro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{6D93A3A8-CA2B-444C-B3F1-62979BDD44DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E3C0CEA-44B5-4CEF-BD95-F38BD24CA52D}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{6D93A3A8-CA2B-444C-B3F1-62979BDD44DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB54000-70DB-49A4-BF2B-3B6BD4388653}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23160" windowHeight="13920" activeTab="1" xr2:uid="{60D5B2DF-372B-495A-B29B-9CF396D65CF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{60D5B2DF-372B-495A-B29B-9CF396D65CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -208,7 +208,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -402,7 +402,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -439,7 +439,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04A87389-4A9F-4719-A726-83107B156148}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04A87389-4A9F-4719-A726-83107B156148}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:P15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1670,7 +1670,7 @@
     <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7265625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" style="22" customWidth="1"/>
     <col min="6" max="6" width="29.6328125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6328125" style="11" bestFit="1" customWidth="1"/>
@@ -2376,6 +2376,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f30921bc-fb30-475c-93d3-02b644db2155" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B81F19F2ED231E41A99DFEF333EBF2F3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="77fc17566db47236414220b1080c3c0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f30921bc-fb30-475c-93d3-02b644db2155" xmlns:ns4="01cceb4d-45ab-43d5-b34e-3c6c2cab8dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58c8fa8f92975c760e207a3a14223c50" ns3:_="" ns4:_="">
     <xsd:import namespace="f30921bc-fb30-475c-93d3-02b644db2155"/>
@@ -2628,24 +2645,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7F4633B-5556-4C43-AF97-AA929A0D3A67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f30921bc-fb30-475c-93d3-02b644db2155"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01cceb4d-45ab-43d5-b34e-3c6c2cab8dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f30921bc-fb30-475c-93d3-02b644db2155" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7D79D1-BBE1-4A79-96CF-DCDF6FBA3EAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F6D019-F830-4194-9002-B1BDA6D3BCB5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2662,29 +2687,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7D79D1-BBE1-4A79-96CF-DCDF6FBA3EAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7F4633B-5556-4C43-AF97-AA929A0D3A67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f30921bc-fb30-475c-93d3-02b644db2155"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01cceb4d-45ab-43d5-b34e-3c6c2cab8dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>